--- a/DeskApp/OLEDB/Customer.xlsx
+++ b/DeskApp/OLEDB/Customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Transporter\DeskApp\OLEDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469720EA-F054-4401-AD53-24C40D9CF053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6727A87-CBD3-4461-AF74-FE57667DEE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1763" windowWidth="14400" windowHeight="7807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="19396" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>CustomerID</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ReigonID</t>
-  </si>
-  <si>
     <t>AddressLine</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>3000 J St SW Apt 105</t>
   </si>
   <si>
-    <t>Hassan</t>
-  </si>
-  <si>
     <t>Karar</t>
   </si>
   <si>
@@ -79,24 +73,88 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>RegionID</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Khartoum North13</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>أواب</t>
+  </si>
+  <si>
+    <t>الجيلاني</t>
+  </si>
+  <si>
+    <t>علي</t>
+  </si>
+  <si>
+    <t>AwaabElamin@Gmail.com</t>
+  </si>
+  <si>
+    <t>بحري شمال 1</t>
+  </si>
+  <si>
+    <t>حي البراحة جوار مشفى البراحة</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3092104964</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>حسن</t>
+  </si>
+  <si>
+    <t>كرار</t>
+  </si>
+  <si>
+    <t>3191234567</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>tener</t>
+  </si>
+  <si>
+    <t>الود حسن</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>12@Transporter.com</t>
+  </si>
+  <si>
+    <t>Sababy sdsad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,16 +177,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,116 +463,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="1"/>
+    <col min="8" max="8" width="17.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>3192104964</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>حسن</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>كرار</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Karar</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>3191234567</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Awaab@live.com</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Kirkwood1</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>3000 jdjs</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>3191234567</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tener</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>الود حسن</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12@Transporter.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Khartoum North13</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sababy sdsad</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>الجيلاني</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>علي</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AwaabElamin@Gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>بحري شمال 1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>حي البراحة جوار مشفى البراحة</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{569EE9A1-46C9-4B04-BC9E-43376330A9CC}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{5FB5F9E6-358A-479A-9276-27252E7F11B5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DeskApp/OLEDB/Customer.xlsx
+++ b/DeskApp/OLEDB/Customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Transporter\DeskApp\OLEDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6727A87-CBD3-4461-AF74-FE57667DEE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64991C94-3740-491B-8133-2987035993F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="19396" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>CustomerID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Awaab@live.com</t>
   </si>
   <si>
-    <t>Kirkwood1</t>
-  </si>
-  <si>
     <t>3000 J St SW Apt 105</t>
   </si>
   <si>
@@ -84,18 +81,12 @@
     <t>1234567890</t>
   </si>
   <si>
-    <t>Khartoum North13</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>أواب</t>
-  </si>
-  <si>
     <t>الجيلاني</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>AwaabElamin@Gmail.com</t>
   </si>
   <si>
-    <t>بحري شمال 1</t>
-  </si>
-  <si>
     <t>حي البراحة جوار مشفى البراحة</t>
   </si>
   <si>
@@ -129,22 +117,67 @@
     <t>3191234567</t>
   </si>
   <si>
+    <t>tener</t>
+  </si>
+  <si>
+    <t>الود حسن</t>
+  </si>
+  <si>
+    <t>12@Transporter.com</t>
+  </si>
+  <si>
+    <t>Sababy sdsad</t>
+  </si>
+  <si>
+    <t>Sampl</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>1236567890</t>
+  </si>
+  <si>
+    <t>بحري1</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>tener</t>
-  </si>
-  <si>
-    <t>الود حسن</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>12@Transporter.com</t>
-  </si>
-  <si>
-    <t>Sababy sdsad</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>تنير</t>
+  </si>
+  <si>
+    <t>أبراهيم</t>
+  </si>
+  <si>
+    <t>0901239921</t>
+  </si>
+  <si>
+    <t>3000 J St SW</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>awaab</t>
+  </si>
+  <si>
+    <t>aas</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>Awaab@Awab.com</t>
+  </si>
+  <si>
+    <t>123 asddh jjah</t>
   </si>
 </sst>
 </file>
@@ -464,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -477,7 +510,7 @@
     <col min="3" max="3" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.53125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.06640625" style="1"/>
     <col min="8" max="8" width="17.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="1"/>
@@ -503,18 +536,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -526,159 +559,181 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>حسن</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>كرار</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Karar</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>3191234567</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Awaab@live.com</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Kirkwood1</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>3000 jdjs</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>tener</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>الود حسن</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12@Transporter.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Khartoum North13</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Sababy sdsad</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.45" outlineLevel="0" r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>awaab</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>الجيلاني</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>علي</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1234567890</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>AwaabElamin@Gmail.com</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>بحري شمال 1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>حي البراحة جوار مشفى البراحة</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Awaab@Awab.com</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>بحري2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>123 asddh jjah</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>

--- a/DeskApp/OLEDB/Customer.xlsx
+++ b/DeskApp/OLEDB/Customer.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="G2" sqref="G2:G3"/>
@@ -737,6 +737,48 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>حسين</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>تمساح</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>3192104964</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Moh@Company.com</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>بحري 4</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>ساكن هنا بي جاي</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
